--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivang Dudani\Desktop\yaml_to_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivang Dudani\Desktop\ONDC-NTS-Specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6831034-49F2-4881-AABD-C768FCD5CD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4E7291-D522-4C49-AD5C-DD2BAC1E3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settle_misc" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="on_settle" sheetId="4" r:id="rId4"/>
     <sheet name="report" sheetId="5" r:id="rId5"/>
     <sheet name="on_report" sheetId="6" r:id="rId6"/>
+    <sheet name="recon" sheetId="7" r:id="rId7"/>
+    <sheet name="on_recon" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="135">
   <si>
     <t>Path</t>
   </si>
@@ -328,13 +330,115 @@
   </si>
   <si>
     <t>message.settlement.orders.inter_participant.value</t>
+  </si>
+  <si>
+    <t>message.orders.amount.currency</t>
+  </si>
+  <si>
+    <t>message.orders.amount.value</t>
+  </si>
+  <si>
+    <t>message.orders.id</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.amount.currency</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.amount.value</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.commission.currency</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.commission.value</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.id</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.payment_id</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.settlement_ref_no</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.status</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.tcs.currency</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.tcs.value</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.tds.currency</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.tds.value</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.updated_at</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.withholding_amount.currency</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.withholding_amount.value</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.amount.diff_amount</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.commission.diff_amount</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.tcs.diff_amount</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.tds.diff_amount</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.withholding_amount.diff_amount</t>
+  </si>
+  <si>
+    <t>recon</t>
+  </si>
+  <si>
+    <t>order-1234</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>settlement-id-456</t>
+  </si>
+  <si>
+    <t>pymnt-1</t>
+  </si>
+  <si>
+    <t>utr-1234</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>on_recon</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>receiver-app.com</t>
+  </si>
+  <si>
+    <t>https://receiver-app.com/ondc/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +450,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -380,16 +492,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2246,7 +2364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2994,7 +3114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3775,9 +3897,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -4581,4 +4708,1222 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2020830-4AD2-4262-A507-560AC4C1F264}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="50.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{24174B54-63F3-4976-A828-F066DD664AB8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EBF98-981C-4233-B839-BBDDE82D6C34}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{40258AC0-8ECB-48EF-8FAF-C5008F1176FB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivang Dudani\Desktop\ONDC-NTS-Specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4E7291-D522-4C49-AD5C-DD2BAC1E3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD2F32A-A562-44EA-83BD-380B3581C294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="137">
   <si>
     <t>Path</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>https://receiver-app.com/ondc/</t>
+  </si>
+  <si>
+    <t>message.orders.recon_accord</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
 </sst>
 </file>
@@ -5279,10 +5285,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EBF98-981C-4233-B839-BBDDE82D6C34}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5582,24 +5588,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
-        <v>41</v>
+      <c r="E18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -5616,7 +5622,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -5633,7 +5639,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -5650,7 +5656,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -5667,7 +5673,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -5684,7 +5690,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -5701,7 +5707,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -5718,7 +5724,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -5735,7 +5741,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -5752,7 +5758,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -5769,7 +5775,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -5786,7 +5792,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -5803,7 +5809,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -5820,7 +5826,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -5837,7 +5843,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -5854,7 +5860,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
@@ -5871,7 +5877,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -5888,7 +5894,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -5905,7 +5911,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -5918,6 +5924,11 @@
       </c>
       <c r="E37" s="2" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivang Dudani\Desktop\ONDC-NTS-Specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD2F32A-A562-44EA-83BD-380B3581C294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAE0409-9352-4EB3-8A0B-8750A18ED7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settle_misc" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="137">
   <si>
     <t>Path</t>
   </si>
@@ -814,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -1081,12 +1081,12 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -1098,12 +1098,12 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -1115,12 +1115,12 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -1132,12 +1132,12 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -1149,12 +1149,12 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -1166,12 +1166,12 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -1182,13 +1182,13 @@
       <c r="D21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
-        <v>45</v>
+      <c r="E21">
+        <v>1234567890</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -1200,12 +1200,12 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -1216,13 +1216,13 @@
       <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="E23">
-        <v>1234567890</v>
+      <c r="E23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -1234,40 +1234,6 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1824,9 +1790,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2074,7 +2042,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2086,279 +2054,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5287,7 +4983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EBF98-981C-4233-B839-BBDDE82D6C34}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivang Dudani\Desktop\ONDC-NTS-Specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAE0409-9352-4EB3-8A0B-8750A18ED7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4424EB20-ABEA-47B5-B60D-3B868E5D3FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settle_misc" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="212">
   <si>
     <t>Path</t>
   </si>
@@ -438,13 +438,238 @@
   </si>
   <si>
     <t>boolean</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Domain in which the settlement occurs</t>
+  </si>
+  <si>
+    <t>Describes country code as per ISO 3166-1 and ISO 3166-2 format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes city </t>
+  </si>
+  <si>
+    <t>Describes the version of transaction protocol being used by the sender.</t>
+  </si>
+  <si>
+    <t>Describes the method being called by the sender and executed at the receiver.</t>
+  </si>
+  <si>
+    <t>Describes the subscriber id of the SNP</t>
+  </si>
+  <si>
+    <t>Describes the subscriber id of the BNP</t>
+  </si>
+  <si>
+    <t>Describes the subscriber uri of the BNP</t>
+  </si>
+  <si>
+    <t>Describes the subscriber uri of the SNP</t>
+  </si>
+  <si>
+    <t>Describes  a unique value which persists across all API calls</t>
+  </si>
+  <si>
+    <t>Describes a unique value which persists during a request / callback cycle.</t>
+  </si>
+  <si>
+    <t>Describes time of request generation in RFC3339 format</t>
+  </si>
+  <si>
+    <t>Describes the duration in ISO8601 format after timestamp for which this message holds valid</t>
+  </si>
+  <si>
+    <t>Type of settlement</t>
+  </si>
+  <si>
+    <t>Currency of the amount that is being settled</t>
+  </si>
+  <si>
+    <t>Type of Interparticipant settlement</t>
+  </si>
+  <si>
+    <t>Id of Interpartcipant settlement</t>
+  </si>
+  <si>
+    <t>Value of the amount that is being settled</t>
+  </si>
+  <si>
+    <t>Id of the provider</t>
+  </si>
+  <si>
+    <t>Account number of the provider</t>
+  </si>
+  <si>
+    <t>Name of the provider</t>
+  </si>
+  <si>
+    <t>IFSC code of the provider</t>
+  </si>
+  <si>
+    <t>ID of the collector</t>
+  </si>
+  <si>
+    <t>ID of the reciever</t>
+  </si>
+  <si>
+    <t>Type of Interparticipant Settlement</t>
+  </si>
+  <si>
+    <t>Id of the order</t>
+  </si>
+  <si>
+    <t>Status of interparticipant fund settlement</t>
+  </si>
+  <si>
+    <t>Reference number of Interparticipant fund settlement</t>
+  </si>
+  <si>
+    <t>Code of the error occurred at the time of settlement</t>
+  </si>
+  <si>
+    <t>Message of the error occurred at the time of settlement</t>
+  </si>
+  <si>
+    <t>Status of provider fund settlement</t>
+  </si>
+  <si>
+    <t>Reference number of provider fund settlement</t>
+  </si>
+  <si>
+    <t>Status of self fund settlement</t>
+  </si>
+  <si>
+    <t>Reference number of self fund settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscriber Id of Collecter </t>
+  </si>
+  <si>
+    <t>Subscriber Id of Reciever</t>
+  </si>
+  <si>
+    <t>Type of Settlement</t>
+  </si>
+  <si>
+    <t>Id of Settlement</t>
+  </si>
+  <si>
+    <t>Id of Provider</t>
+  </si>
+  <si>
+    <t>Name of Provider</t>
+  </si>
+  <si>
+    <t>Reference transaction ID of the settlement instruction</t>
+  </si>
+  <si>
+    <t>Reference message ID of the settlement instruction</t>
+  </si>
+  <si>
+    <t>Currency of the amount of the Order</t>
+  </si>
+  <si>
+    <t>Value of the amount of the Order</t>
+  </si>
+  <si>
+    <t>Id of the settlement</t>
+  </si>
+  <si>
+    <t>Payment ID of the settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settlement Reference number of the settlement </t>
+  </si>
+  <si>
+    <t>Status of the settlement</t>
+  </si>
+  <si>
+    <t>Currency of tax collected at source</t>
+  </si>
+  <si>
+    <t>Value of tax collected at source</t>
+  </si>
+  <si>
+    <t>Currency of tax deducted at source</t>
+  </si>
+  <si>
+    <t>Value of tax deducted at source</t>
+  </si>
+  <si>
+    <t>Settlement modification time</t>
+  </si>
+  <si>
+    <t>Currency of the withholding amount</t>
+  </si>
+  <si>
+    <t>Value of the withholding amount</t>
+  </si>
+  <si>
+    <t>Currency of the amount of the settlement</t>
+  </si>
+  <si>
+    <t>Value of the amount of the settlement</t>
+  </si>
+  <si>
+    <t>Currency of the commission on the order</t>
+  </si>
+  <si>
+    <t>Value of the commission on the order</t>
+  </si>
+  <si>
+    <t>Formal agreement of the settled amount</t>
+  </si>
+  <si>
+    <t>Difference in the settlement amount incase recon_accord is FALSE</t>
+  </si>
+  <si>
+    <t>Difference in the commission amount incase recon_accord is FALSE</t>
+  </si>
+  <si>
+    <t>Payment_Id of the settlement</t>
+  </si>
+  <si>
+    <t>Difference in the tax collected at the source incase recon_accord is FALSE</t>
+  </si>
+  <si>
+    <t>Difference in the tax deducted at the source incase recon_accord is FALSE</t>
+  </si>
+  <si>
+    <t>Difference in the withholding amount incase recon_accord is FALSE</t>
+  </si>
+  <si>
+    <t>Provider amount is the amount that is to be transferred to the provider's provided account</t>
+  </si>
+  <si>
+    <t>Currency of the amount that is to be transferred to the provider's provided account</t>
+  </si>
+  <si>
+    <t>Self amount is the amount that is to be moved to the API caller's operating account</t>
+  </si>
+  <si>
+    <t>Currency of the amount that is to be moved to the API caller's operating account</t>
+  </si>
+  <si>
+    <t>Collector amount is what collector keeps for themselves</t>
+  </si>
+  <si>
+    <t>Currency of the amount that the collector keeps for themselves</t>
+  </si>
+  <si>
+    <t>Inter participant amount is what is to be settled from collector to receiver</t>
+  </si>
+  <si>
+    <t>Currency of the amount that is to be settled from collector to receiver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,16 +690,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -497,12 +733,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -511,10 +779,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{E9D92817-A872-49D1-8A7C-832AD3585A9D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -814,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,9 +1109,10 @@
     <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,8 +1128,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -862,8 +1148,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -879,8 +1168,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -896,8 +1188,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -913,8 +1208,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -930,8 +1228,11 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -947,8 +1248,11 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -964,8 +1268,11 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -981,8 +1288,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -998,8 +1308,11 @@
       <c r="E10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1015,8 +1328,11 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1032,8 +1348,11 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1049,8 +1368,11 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1066,8 +1388,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1083,8 +1408,11 @@
       <c r="E15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1100,8 +1428,11 @@
       <c r="E16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1117,8 +1448,11 @@
       <c r="E17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1134,8 +1468,11 @@
       <c r="E18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1151,8 +1488,11 @@
       <c r="E19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1168,8 +1508,11 @@
       <c r="E20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1185,8 +1528,11 @@
       <c r="E21">
         <v>1234567890</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1202,8 +1548,11 @@
       <c r="E22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1219,8 +1568,11 @@
       <c r="E23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1235,6 +1587,9 @@
       </c>
       <c r="E24" t="s">
         <v>43</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1244,9 +1599,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1254,9 +1611,10 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,8 +1630,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1289,8 +1650,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1306,8 +1670,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1323,8 +1690,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1340,8 +1710,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1357,8 +1730,11 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1374,8 +1750,11 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1391,8 +1770,11 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1408,8 +1790,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1425,8 +1810,11 @@
       <c r="E10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1442,8 +1830,11 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1459,8 +1850,11 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1476,8 +1870,11 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1493,8 +1890,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1510,8 +1910,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1527,8 +1930,11 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1544,8 +1950,11 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1561,8 +1970,11 @@
       <c r="E18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1578,8 +1990,11 @@
       <c r="E19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1595,8 +2010,11 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1612,8 +2030,11 @@
       <c r="E21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1629,8 +2050,11 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1646,8 +2070,11 @@
       <c r="E23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1663,8 +2090,11 @@
       <c r="E24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1680,8 +2110,11 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1697,8 +2130,11 @@
       <c r="E26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1714,8 +2150,11 @@
       <c r="E27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1731,8 +2170,11 @@
       <c r="E28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1748,8 +2190,11 @@
       <c r="E29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1765,8 +2210,11 @@
       <c r="E30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1781,6 +2229,9 @@
       </c>
       <c r="E31" t="s">
         <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1790,19 +2241,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1818,8 +2270,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1835,8 +2290,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1852,8 +2310,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1869,8 +2330,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1886,8 +2350,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1903,8 +2370,11 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1920,8 +2390,11 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1937,8 +2410,11 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1954,8 +2430,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1971,8 +2450,11 @@
       <c r="E10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1988,8 +2470,11 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2005,8 +2490,11 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2022,8 +2510,11 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2039,8 +2530,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2055,6 +2549,9 @@
       </c>
       <c r="E15" t="s">
         <v>67</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2064,19 +2561,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2092,8 +2590,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2109,8 +2610,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2126,8 +2630,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2143,8 +2650,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2160,8 +2670,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2177,8 +2690,11 @@
       <c r="E6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2194,8 +2710,11 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2211,8 +2730,11 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2228,8 +2750,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2245,8 +2770,11 @@
       <c r="E10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2790,11 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2279,8 +2810,11 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2296,8 +2830,11 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2313,8 +2850,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2330,8 +2870,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2347,8 +2890,11 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2364,8 +2910,11 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2381,8 +2930,11 @@
       <c r="E18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2398,8 +2950,11 @@
       <c r="E19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2415,8 +2970,11 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2432,8 +2990,11 @@
       <c r="E21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2449,8 +3010,11 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2466,8 +3030,11 @@
       <c r="E23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2483,8 +3050,11 @@
       <c r="E24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2500,8 +3070,11 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2517,8 +3090,11 @@
       <c r="E26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2534,8 +3110,11 @@
       <c r="E27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2551,8 +3130,11 @@
       <c r="E28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2568,8 +3150,11 @@
       <c r="E29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2585,8 +3170,11 @@
       <c r="E30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2602,8 +3190,11 @@
       <c r="E31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -2619,8 +3210,11 @@
       <c r="E32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +3230,11 @@
       <c r="E33" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2653,8 +3250,11 @@
       <c r="E34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2670,8 +3270,11 @@
       <c r="E35" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2687,8 +3290,11 @@
       <c r="E36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2704,8 +3310,11 @@
       <c r="E37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2721,8 +3330,11 @@
       <c r="E38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2738,8 +3350,11 @@
       <c r="E39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2755,8 +3370,11 @@
       <c r="E40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2772,8 +3390,11 @@
       <c r="E41" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -2789,8 +3410,11 @@
       <c r="E42" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2805,6 +3429,9 @@
       </c>
       <c r="E43" t="s">
         <v>76</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2814,18 +3441,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2841,8 +3470,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2858,8 +3490,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2875,8 +3510,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2892,8 +3530,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2909,8 +3550,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2926,8 +3570,11 @@
       <c r="E6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2943,8 +3590,11 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2960,8 +3610,11 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2977,8 +3630,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2994,8 +3650,11 @@
       <c r="E10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3011,8 +3670,11 @@
       <c r="E11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3028,8 +3690,11 @@
       <c r="E12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3045,8 +3710,11 @@
       <c r="E13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3062,8 +3730,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3079,8 +3750,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3096,8 +3770,11 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3113,8 +3790,11 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3130,8 +3810,11 @@
       <c r="E18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3147,8 +3830,11 @@
       <c r="E19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -3164,8 +3850,11 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -3181,8 +3870,11 @@
       <c r="E21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -3198,8 +3890,11 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3215,8 +3910,11 @@
       <c r="E23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -3232,8 +3930,11 @@
       <c r="E24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3249,8 +3950,11 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -3266,8 +3970,11 @@
       <c r="E26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3283,8 +3990,11 @@
       <c r="E27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3300,8 +4010,11 @@
       <c r="E28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3317,8 +4030,11 @@
       <c r="E29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3334,8 +4050,11 @@
       <c r="E30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3351,8 +4070,11 @@
       <c r="E31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3368,8 +4090,11 @@
       <c r="E32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -3385,8 +4110,11 @@
       <c r="E33" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -3402,8 +4130,11 @@
       <c r="E34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -3419,8 +4150,11 @@
       <c r="E35" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -3436,8 +4170,11 @@
       <c r="E36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -3453,8 +4190,11 @@
       <c r="E37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -3470,8 +4210,11 @@
       <c r="E38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3487,8 +4230,11 @@
       <c r="E39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -3504,8 +4250,11 @@
       <c r="E40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -3521,8 +4270,11 @@
       <c r="E41" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -3538,8 +4290,11 @@
       <c r="E42" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -3555,8 +4310,11 @@
       <c r="E43" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -3572,8 +4330,11 @@
       <c r="E44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -3588,6 +4349,9 @@
       </c>
       <c r="E45" t="s">
         <v>94</v>
+      </c>
+      <c r="F45" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3597,18 +4361,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3624,8 +4390,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3641,8 +4410,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3658,8 +4430,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3675,8 +4450,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3692,8 +4470,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3709,8 +4490,11 @@
       <c r="E6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3726,8 +4510,11 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3743,8 +4530,11 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3760,8 +4550,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3777,8 +4570,11 @@
       <c r="E10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3794,8 +4590,11 @@
       <c r="E11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3811,8 +4610,11 @@
       <c r="E12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3828,8 +4630,11 @@
       <c r="E13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3845,8 +4650,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3862,8 +4670,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3879,8 +4690,11 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3896,8 +4710,11 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3913,8 +4730,11 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3930,8 +4750,11 @@
       <c r="E19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -3947,8 +4770,11 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -3964,8 +4790,11 @@
       <c r="E21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -3981,8 +4810,11 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3998,8 +4830,11 @@
       <c r="E23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -4015,8 +4850,11 @@
       <c r="E24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -4032,8 +4870,11 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -4049,8 +4890,11 @@
       <c r="E26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -4066,8 +4910,11 @@
       <c r="E27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -4083,8 +4930,11 @@
       <c r="E28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -4100,8 +4950,11 @@
       <c r="E29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4117,8 +4970,11 @@
       <c r="E30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -4134,8 +4990,11 @@
       <c r="E31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -4151,8 +5010,11 @@
       <c r="E32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -4168,8 +5030,11 @@
       <c r="E33" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -4185,8 +5050,11 @@
       <c r="E34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -4202,8 +5070,11 @@
       <c r="E35" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -4219,8 +5090,11 @@
       <c r="E36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -4236,8 +5110,11 @@
       <c r="E37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -4253,8 +5130,11 @@
       <c r="E38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +5150,11 @@
       <c r="E39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -4287,8 +5170,11 @@
       <c r="E40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -4304,8 +5190,11 @@
       <c r="E41" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -4321,8 +5210,11 @@
       <c r="E42" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -4338,8 +5230,11 @@
       <c r="E43" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -4355,8 +5250,11 @@
       <c r="E44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -4372,8 +5270,11 @@
       <c r="E45" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -4389,8 +5290,11 @@
       <c r="E46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -4405,6 +5309,9 @@
       </c>
       <c r="E47" t="s">
         <v>63</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4414,19 +5321,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2020830-4AD2-4262-A507-560AC4C1F264}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="50.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4442,8 +5350,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4459,8 +5370,11 @@
       <c r="E2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4476,8 +5390,11 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4493,8 +5410,11 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -4510,8 +5430,11 @@
       <c r="E5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4527,8 +5450,11 @@
       <c r="E6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4544,8 +5470,11 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4561,8 +5490,11 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4578,8 +5510,11 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -4595,8 +5530,11 @@
       <c r="E10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -4612,8 +5550,11 @@
       <c r="E11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4629,8 +5570,11 @@
       <c r="E12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -4646,8 +5590,11 @@
       <c r="E13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4663,8 +5610,11 @@
       <c r="E14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -4680,8 +5630,11 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -4697,8 +5650,11 @@
       <c r="E16" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -4714,8 +5670,11 @@
       <c r="E17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -4731,8 +5690,11 @@
       <c r="E18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -4748,8 +5710,11 @@
       <c r="E19" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -4765,8 +5730,11 @@
       <c r="E20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -4782,8 +5750,11 @@
       <c r="E21" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -4799,8 +5770,11 @@
       <c r="E22" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4816,8 +5790,11 @@
       <c r="E23" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -4833,8 +5810,11 @@
       <c r="E24" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -4850,8 +5830,11 @@
       <c r="E25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -4867,8 +5850,11 @@
       <c r="E26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -4884,8 +5870,11 @@
       <c r="E27" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -4901,8 +5890,11 @@
       <c r="E28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -4918,8 +5910,11 @@
       <c r="E29" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -4935,8 +5930,11 @@
       <c r="E30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -4952,8 +5950,11 @@
       <c r="E31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -4968,6 +5969,9 @@
       </c>
       <c r="E32" s="2" t="s">
         <v>126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4981,19 +5985,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EBF98-981C-4233-B839-BBDDE82D6C34}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="54.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5009,8 +6014,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5026,8 +6034,11 @@
       <c r="E2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5043,8 +6054,11 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -5060,8 +6074,11 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5077,8 +6094,11 @@
       <c r="E5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5094,8 +6114,11 @@
       <c r="E6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5111,8 +6134,11 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5128,8 +6154,11 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5145,8 +6174,11 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -5162,8 +6194,11 @@
       <c r="E10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -5179,8 +6214,11 @@
       <c r="E11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -5196,8 +6234,11 @@
       <c r="E12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -5213,8 +6254,11 @@
       <c r="E13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5230,8 +6274,11 @@
       <c r="E14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -5247,8 +6294,11 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -5264,8 +6314,11 @@
       <c r="E16" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -5281,8 +6334,11 @@
       <c r="E17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -5298,8 +6354,11 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -5315,8 +6374,11 @@
       <c r="E19" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -5332,8 +6394,11 @@
       <c r="E20" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -5349,8 +6414,11 @@
       <c r="E21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -5366,8 +6434,11 @@
       <c r="E22" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -5383,8 +6454,11 @@
       <c r="E23" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -5400,8 +6474,11 @@
       <c r="E24" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -5417,8 +6494,11 @@
       <c r="E25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -5434,8 +6514,11 @@
       <c r="E26" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -5451,8 +6534,11 @@
       <c r="E27" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -5468,8 +6554,11 @@
       <c r="E28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -5485,8 +6574,11 @@
       <c r="E29" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -5502,8 +6594,11 @@
       <c r="E30" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -5519,8 +6614,11 @@
       <c r="E31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -5536,8 +6634,11 @@
       <c r="E32" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -5553,8 +6654,11 @@
       <c r="E33" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -5570,8 +6674,11 @@
       <c r="E34" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -5587,8 +6694,11 @@
       <c r="E35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -5604,8 +6714,11 @@
       <c r="E36" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -5621,10 +6734,16 @@
       <c r="E37" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>118</v>
+      </c>
+      <c r="F38" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivang Dudani\Desktop\ONDC-NTS-Specifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivangdudani/Desktop/ONDC-NTS-Specifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4424EB20-ABEA-47B5-B60D-3B868E5D3FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0694D88F-3C83-F44C-9544-6D87C05D6C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settle_misc" sheetId="1" r:id="rId1"/>
@@ -681,6 +681,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -694,6 +695,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -770,7 +772,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -779,19 +781,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1102,17 +1097,17 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1127,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1147,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1172,7 +1167,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1192,7 +1187,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1212,7 +1207,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1228,11 +1223,11 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1272,7 +1267,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1292,7 +1287,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +1307,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1328,11 +1323,11 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1348,11 +1343,11 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1368,11 +1363,11 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1388,11 +1383,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1408,11 +1403,11 @@
       <c r="E15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1428,11 +1423,11 @@
       <c r="E16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1448,11 +1443,11 @@
       <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1468,11 +1463,11 @@
       <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1488,11 +1483,11 @@
       <c r="E19" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1508,11 +1503,11 @@
       <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1528,11 +1523,11 @@
       <c r="E21">
         <v>1234567890</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1548,11 +1543,11 @@
       <c r="E22" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1568,11 +1563,11 @@
       <c r="E23" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1588,7 +1583,7 @@
       <c r="E24" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="7" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1605,16 +1600,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1629,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1649,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1670,11 +1665,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1694,7 +1689,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1710,11 +1705,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1730,11 +1725,11 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1750,11 +1745,11 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1774,7 +1769,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1790,11 +1785,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1814,7 +1809,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1830,11 +1825,11 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1850,11 +1845,11 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1870,11 +1865,11 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1890,11 +1885,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1910,11 +1905,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1930,11 +1925,11 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1950,11 +1945,11 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1970,11 +1965,11 @@
       <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1990,11 +1985,11 @@
       <c r="E19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2010,11 +2005,11 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2030,11 +2025,11 @@
       <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2050,11 +2045,11 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2070,11 +2065,11 @@
       <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2090,11 +2085,11 @@
       <c r="E24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2110,11 +2105,11 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2130,11 +2125,11 @@
       <c r="E26" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2150,11 +2145,11 @@
       <c r="E27" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2170,11 +2165,11 @@
       <c r="E28" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2194,7 +2189,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2210,11 +2205,11 @@
       <c r="E30" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2247,14 +2242,14 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2274,7 +2269,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2289,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2310,11 +2305,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2334,7 +2329,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2350,11 +2345,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2370,11 +2365,11 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2390,11 +2385,11 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2414,7 +2409,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2430,11 +2425,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2454,7 +2449,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2470,11 +2465,11 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2490,11 +2485,11 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2510,11 +2505,11 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2530,11 +2525,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2550,7 +2545,7 @@
       <c r="E15" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="7" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2567,14 +2562,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +2589,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2614,7 +2609,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2630,11 +2625,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2654,7 +2649,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2670,11 +2665,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2690,11 +2685,11 @@
       <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2710,11 +2705,11 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2734,7 +2729,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2750,11 +2745,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2774,7 +2769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2790,11 +2785,11 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2810,11 +2805,11 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2830,11 +2825,11 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2850,11 +2845,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2870,11 +2865,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2890,11 +2885,11 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2910,11 +2905,11 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2930,11 +2925,11 @@
       <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2950,11 +2945,11 @@
       <c r="E19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2970,11 +2965,11 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2990,11 +2985,11 @@
       <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -3010,11 +3005,11 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3030,11 +3025,11 @@
       <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -3050,11 +3045,11 @@
       <c r="E24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3070,11 +3065,11 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -3090,11 +3085,11 @@
       <c r="E26" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3110,11 +3105,11 @@
       <c r="E27" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3130,11 +3125,11 @@
       <c r="E28" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3154,7 +3149,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3170,11 +3165,11 @@
       <c r="E30" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3194,7 +3189,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3210,11 +3205,11 @@
       <c r="E32" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -3230,11 +3225,11 @@
       <c r="E33" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -3250,11 +3245,11 @@
       <c r="E34" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -3270,11 +3265,11 @@
       <c r="E35" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -3290,11 +3285,11 @@
       <c r="E36" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -3310,11 +3305,11 @@
       <c r="E37" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -3334,7 +3329,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3350,11 +3345,11 @@
       <c r="E39" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -3370,11 +3365,11 @@
       <c r="E40" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -3390,11 +3385,11 @@
       <c r="E41" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -3414,7 +3409,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -3430,7 +3425,7 @@
       <c r="E43" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="7" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3447,14 +3442,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3474,7 +3469,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3494,7 +3489,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3510,11 +3505,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3534,7 +3529,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3550,11 +3545,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3570,11 +3565,11 @@
       <c r="E6" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3590,11 +3585,11 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3614,7 +3609,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3630,11 +3625,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3654,7 +3649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3670,11 +3665,11 @@
       <c r="E11" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3690,11 +3685,11 @@
       <c r="E12" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3710,11 +3705,11 @@
       <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3730,11 +3725,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3750,11 +3745,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3770,11 +3765,11 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3790,11 +3785,11 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3810,11 +3805,11 @@
       <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3830,11 +3825,11 @@
       <c r="E19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -3850,11 +3845,11 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -3870,11 +3865,11 @@
       <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -3890,11 +3885,11 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3910,11 +3905,11 @@
       <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -3930,11 +3925,11 @@
       <c r="E24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3950,11 +3945,11 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -3970,11 +3965,11 @@
       <c r="E26" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3990,11 +3985,11 @@
       <c r="E27" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -4010,11 +4005,11 @@
       <c r="E28" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -4034,7 +4029,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4050,11 +4045,11 @@
       <c r="E30" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -4074,7 +4069,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -4090,11 +4085,11 @@
       <c r="E32" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -4110,11 +4105,11 @@
       <c r="E33" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -4130,11 +4125,11 @@
       <c r="E34" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -4150,11 +4145,11 @@
       <c r="E35" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -4170,11 +4165,11 @@
       <c r="E36" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -4190,11 +4185,11 @@
       <c r="E37" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -4214,7 +4209,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4230,11 +4225,11 @@
       <c r="E39" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -4250,11 +4245,11 @@
       <c r="E40" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -4270,11 +4265,11 @@
       <c r="E41" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -4294,7 +4289,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -4310,11 +4305,11 @@
       <c r="E43" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -4330,11 +4325,11 @@
       <c r="E44" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -4367,14 +4362,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4394,7 +4389,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4414,7 +4409,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4430,11 +4425,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4454,7 +4449,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4470,11 +4465,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4490,11 +4485,11 @@
       <c r="E6" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4510,11 +4505,11 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4534,7 +4529,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -4550,11 +4545,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -4574,7 +4569,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4590,11 +4585,11 @@
       <c r="E11" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -4610,11 +4605,11 @@
       <c r="E12" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -4630,11 +4625,11 @@
       <c r="E13" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -4650,11 +4645,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -4670,11 +4665,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -4690,11 +4685,11 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -4710,11 +4705,11 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -4730,11 +4725,11 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -4750,11 +4745,11 @@
       <c r="E19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -4770,11 +4765,11 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -4790,11 +4785,11 @@
       <c r="E21" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -4810,11 +4805,11 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -4830,11 +4825,11 @@
       <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -4850,11 +4845,11 @@
       <c r="E24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -4870,11 +4865,11 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -4890,11 +4885,11 @@
       <c r="E26" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -4910,11 +4905,11 @@
       <c r="E27" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -4930,11 +4925,11 @@
       <c r="E28" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -4954,7 +4949,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4970,11 +4965,11 @@
       <c r="E30" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -4994,7 +4989,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -5010,11 +5005,11 @@
       <c r="E32" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -5030,11 +5025,11 @@
       <c r="E33" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -5050,11 +5045,11 @@
       <c r="E34" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -5070,11 +5065,11 @@
       <c r="E35" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -5090,11 +5085,11 @@
       <c r="E36" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -5110,11 +5105,11 @@
       <c r="E37" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -5134,7 +5129,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -5150,11 +5145,11 @@
       <c r="E39" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -5170,11 +5165,11 @@
       <c r="E40" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -5190,11 +5185,11 @@
       <c r="E41" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -5214,7 +5209,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -5230,11 +5225,11 @@
       <c r="E43" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -5250,11 +5245,11 @@
       <c r="E44" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -5274,7 +5269,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -5290,11 +5285,11 @@
       <c r="E46" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -5310,7 +5305,7 @@
       <c r="E47" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5323,18 +5318,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2020830-4AD2-4262-A507-560AC4C1F264}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5354,7 +5349,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5370,11 +5365,11 @@
       <c r="E2" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5390,11 +5385,11 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -5414,7 +5409,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5430,11 +5425,11 @@
       <c r="E5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5454,7 +5449,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5474,7 +5469,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5494,7 +5489,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5510,11 +5505,11 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -5530,11 +5525,11 @@
       <c r="E10" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -5550,11 +5545,11 @@
       <c r="E11" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -5570,11 +5565,11 @@
       <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -5590,11 +5585,11 @@
       <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5610,11 +5605,11 @@
       <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -5630,11 +5625,11 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -5650,11 +5645,11 @@
       <c r="E16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -5670,11 +5665,11 @@
       <c r="E17" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -5690,11 +5685,11 @@
       <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -5714,7 +5709,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -5730,11 +5725,11 @@
       <c r="E20" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -5754,7 +5749,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -5774,12 +5769,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>109</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -5794,7 +5789,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -5814,7 +5809,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -5834,7 +5829,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -5854,7 +5849,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5874,7 +5869,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -5894,7 +5889,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -5914,7 +5909,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -5934,7 +5929,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -5954,7 +5949,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -5991,14 +5986,14 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6018,7 +6013,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -6034,11 +6029,11 @@
       <c r="E2" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -6054,11 +6049,11 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -6078,7 +6073,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -6094,11 +6089,11 @@
       <c r="E5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -6118,7 +6113,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6138,7 +6133,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6158,7 +6153,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6174,11 +6169,11 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -6194,11 +6189,11 @@
       <c r="E10" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -6214,11 +6209,11 @@
       <c r="E11" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -6234,11 +6229,11 @@
       <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -6254,11 +6249,11 @@
       <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6274,11 +6269,11 @@
       <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -6294,11 +6289,11 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -6314,11 +6309,11 @@
       <c r="E16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -6334,11 +6329,11 @@
       <c r="E17" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -6354,11 +6349,11 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -6374,11 +6369,11 @@
       <c r="E19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -6394,11 +6389,11 @@
       <c r="E20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -6414,11 +6409,11 @@
       <c r="E21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -6434,11 +6429,11 @@
       <c r="E22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -6454,11 +6449,11 @@
       <c r="E23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -6474,11 +6469,11 @@
       <c r="E24" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -6494,11 +6489,11 @@
       <c r="E25" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -6514,11 +6509,11 @@
       <c r="E26" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -6538,7 +6533,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -6558,7 +6553,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -6578,7 +6573,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -6598,7 +6593,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -6618,7 +6613,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -6638,7 +6633,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -6658,7 +6653,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -6678,7 +6673,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -6698,7 +6693,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -6718,7 +6713,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -6738,7 +6733,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivangdudani/Desktop/ONDC-NTS-Specifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahi/Developer/ONDC-NTS-Specifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0694D88F-3C83-F44C-9544-6D87C05D6C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C98283-1600-A042-8B96-7554B475E52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settle_misc" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="215">
   <si>
     <t>Path</t>
   </si>
@@ -663,6 +663,15 @@
   </si>
   <si>
     <t>Currency of the amount that is to be settled from collector to receiver</t>
+  </si>
+  <si>
+    <t>message.orders.settlements.due_date</t>
+  </si>
+  <si>
+    <t>due date of settlement in case recon_accord is true</t>
+  </si>
+  <si>
+    <t>2024-05-09</t>
   </si>
 </sst>
 </file>
@@ -772,7 +781,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -787,6 +796,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5318,7 +5328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2020830-4AD2-4262-A507-560AC4C1F264}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -5980,10 +5990,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EBF98-981C-4233-B839-BBDDE82D6C34}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6535,10 +6545,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -6546,19 +6556,19 @@
       <c r="D28" t="s">
         <v>7</v>
       </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s">
-        <v>185</v>
+      <c r="E28" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -6566,19 +6576,19 @@
       <c r="D29" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>132</v>
+      <c r="E29" t="s">
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -6587,15 +6597,15 @@
         <v>7</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -6606,19 +6616,19 @@
       <c r="D31" t="s">
         <v>7</v>
       </c>
-      <c r="E31" t="s">
-        <v>41</v>
+      <c r="E31" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -6626,19 +6636,19 @@
       <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>132</v>
+      <c r="E32" t="s">
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -6647,15 +6657,15 @@
         <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
@@ -6666,16 +6676,16 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34" t="s">
-        <v>90</v>
+      <c r="E34" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -6687,18 +6697,18 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -6706,19 +6716,19 @@
       <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>132</v>
+      <c r="E36" t="s">
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -6727,17 +6737,37 @@
         <v>7</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F37" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>118</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>192</v>
       </c>
     </row>
